--- a/Projects/NESTLEUK/Data/Template.xlsx
+++ b/Projects/NESTLEUK/Data/Template.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maya\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD7018D-4F6B-4923-B9FC-FE0FC57911FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hierarchy" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Visible" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Bottom shelf" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Adjacent" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Diamond" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Hierarchy" sheetId="1" r:id="rId1"/>
+    <sheet name="Visible" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Bottom shelf" sheetId="3" r:id="rId3"/>
+    <sheet name="Adjacent" sheetId="4" r:id="rId4"/>
+    <sheet name="Diamond" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Hierarchy!$D$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hierarchy!$D$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Hierarchy!$A$1:$F$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Hierarchy!$D$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Hierarchy!$D$1:$D$5</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,95 +36,92 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
-    <t xml:space="preserve">Set Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene Types to Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse - Confectionery EPU, Impulse - Confectionery Food to Go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inside the diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adjacent to any other SKU with a Mint attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjacent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is the bottom shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_ean_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7613035738539, 7613035738119, 50189779, 50251797, 7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_number_from_bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7613035738539, 7613035738119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adjacent_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adjacent_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50189779, 50251797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVA_Attributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 7613034959287</t>
+    <t>Set Name</t>
+  </si>
+  <si>
+    <t>KPI Group</t>
+  </si>
+  <si>
+    <t>KPI Name</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>Scene Types to Include</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>is visible</t>
+  </si>
+  <si>
+    <t>Impulse - Confectionery EPU, Impulse - Confectionery Food to Go</t>
+  </si>
+  <si>
+    <t>Accessible</t>
+  </si>
+  <si>
+    <t>inside the diamond</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>adjacent to any other SKU with a Mint attribute</t>
+  </si>
+  <si>
+    <t>Adjacent</t>
+  </si>
+  <si>
+    <t>is the bottom shelf</t>
+  </si>
+  <si>
+    <t>Bottom shelf</t>
+  </si>
+  <si>
+    <t>product_ean_code</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>7613035738539, 7613035738119, 50189779, 50251797, 7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
+  </si>
+  <si>
+    <t>shelf_number_from_bottom</t>
+  </si>
+  <si>
+    <t>shelf_percent</t>
+  </si>
+  <si>
+    <t>7613035738539, 7613035738119</t>
+  </si>
+  <si>
+    <t>adjacent_type</t>
+  </si>
+  <si>
+    <t>adjacent_value</t>
+  </si>
+  <si>
+    <t>50189779, 50251797</t>
+  </si>
+  <si>
+    <t>AVA_Attributes</t>
+  </si>
+  <si>
+    <t>Mints</t>
+  </si>
+  <si>
+    <t>7613035220065, 7613034954459, 3800020415009, 7613035058347, 3800020418888, 7613034872630, 50251414, 7613034959287</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -128,22 +130,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -158,7 +145,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -180,96 +167,57 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -328,33 +276,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="63.5222672064777"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.10526315789474"/>
+    <col min="1" max="1" width="10.42578125" style="1"/>
+    <col min="2" max="2" width="10.85546875" style="1"/>
+    <col min="3" max="3" width="35.85546875" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1"/>
+    <col min="5" max="5" width="64" style="1"/>
+    <col min="6" max="1025" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -371,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -388,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -405,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -422,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -439,40 +695,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMH2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="1013" min="4" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1022" min="1014" style="6" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
+    <col min="1" max="1" width="10.42578125" style="1"/>
+    <col min="2" max="2" width="41.85546875" style="1"/>
+    <col min="3" max="3" width="7.42578125" style="1"/>
+    <col min="4" max="1013" width="9.140625" style="1"/>
+    <col min="1014" max="1022" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -483,22 +729,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -506,28 +751,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMA2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="1015" min="6" style="8" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.10526315789474"/>
+    <col min="1" max="1" width="18.140625" style="8"/>
+    <col min="2" max="2" width="32.140625" style="8"/>
+    <col min="3" max="3" width="30.140625" style="8"/>
+    <col min="4" max="4" width="11.7109375" style="8"/>
+    <col min="5" max="5" width="7.42578125" style="8"/>
+    <col min="6" max="1015" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -544,28 +785,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>100</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -573,28 +813,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMH2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1014" min="5" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1022" min="1015" style="6" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
+    <col min="1" max="1" width="45.5703125" style="1"/>
+    <col min="2" max="2" width="20" style="1"/>
+    <col min="3" max="3" width="15.85546875" style="1"/>
+    <col min="4" max="4" width="16.42578125" style="1"/>
+    <col min="5" max="1014" width="9.140625" style="1"/>
+    <col min="1015" max="1022" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -608,7 +844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -623,10 +859,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -634,26 +869,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:ALY2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1013" min="4" style="8" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="9.10526315789474"/>
+    <col min="1" max="1" width="15.28515625" style="8"/>
+    <col min="2" max="2" width="72.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="8"/>
+    <col min="4" max="1013" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -664,24 +895,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>